--- a/testdata/exceldata.xlsx
+++ b/testdata/exceldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19785" windowHeight="6450" tabRatio="305"/>
+    <workbookView windowWidth="13620" windowHeight="6450" tabRatio="305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="4">
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>https://demoqa.com/BookStore</t>
+    <t>""</t>
   </si>
   <si>
-    <t>/v1/Books</t>
+    <t>https://demoqa.com/BookStore/v1/Books</t>
   </si>
   <si>
-    <t>""</t>
+    <t>application/json</t>
   </si>
 </sst>
 </file>
@@ -34,12 +34,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,13 +48,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
@@ -62,30 +72,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,26 +128,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,64 +147,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,23 +179,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,25 +209,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,151 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +400,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,24 +464,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,26 +485,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,23 +495,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -550,156 +523,144 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1026,8 +987,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1038,68 +999,149 @@
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1">
         <v>200</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2" s="5"/>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="4:5">
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="4:5">
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="4:5">
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="4:5">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="8"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="3:3">
-      <c r="C11" s="8"/>
+      <c r="C11" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://demoqa.com/BookStore" tooltip="https://demoqa.com/BookStore"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://demoqa.com/BookStore/v1/Books"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://demoqa.com/BookStore/v1/Books"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://demoqa.com/BookStore/v1/Books"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://demoqa.com/BookStore/v1/Books"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://demoqa.com/BookStore/v1/Books"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
